--- a/medicine/Psychotrope/Allume-cigare/Allume-cigare.xlsx
+++ b/medicine/Psychotrope/Allume-cigare/Allume-cigare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un allume-cigare est un accessoire de véhicule automobile, souvent incorporé au tableau de bord, utilisant l'électricité que produit ce véhicule pour permettre d'allumer cigares et cigarettes, à l'instar d'un briquet ou d'allumettes. Cet accessoire a disparu des véhicules en 2006[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un allume-cigare est un accessoire de véhicule automobile, souvent incorporé au tableau de bord, utilisant l'électricité que produit ce véhicule pour permettre d'allumer cigares et cigarettes, à l'instar d'un briquet ou d'allumettes. Cet accessoire a disparu des véhicules en 2006.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'allume cigare est composé de deux parties :
 une partie fixe : analogue à une « prise de courant » de même tension que celle de la batterie du véhicule (12 ou 24 V) ;
@@ -543,7 +557,9 @@
           <t>Usages dérivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie fixe (« prise de courant ») est utilisable par plusieurs appareils commercialisés, en série ou en option, d'un cordon d'alimentation électrique adapté : ordinateurs portables, téléphones portables, PDA, dashcams, baladeurs, lecteurs DVD et télévisions portables, navigateurs GPS, dispositifs de réfrigération, etc.
 L'utilisation de cette source de tension étant en forte demande et les nouveaux usages devenant plus variés que le seul allumage de cigarette, la livraison des automobiles sans l'« embout briquet » est devenue la norme. Le connecteur est dissimulé par un cache protégeant la connexion à la source de courant continu. On en trouve accessibles aux places arrière et dans les coffres.
@@ -554,10 +570,80 @@
 			Convertisseur prise allume-cigare (12 V) vers double USB (5 V).
 			Multiprise allume-cigare.
 			4 sorties USB.
-Câblage
-En Europe continentale, le pôle positif de la batterie est relié au picot central (+), le pôle négatif au culot (-) (masse du véhicule).
-Utilisation sur les bateaux
-On trouve des allume-cigare également sur les bateaux de plaisance, permettant la recharge d'un appareil électrique même avec des batteries 12 V. Sur les bateaux, il n'y a souvent pas d'embout briquet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allume-cigare</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allume-cigare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Usages dérivés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Câblage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe continentale, le pôle positif de la batterie est relié au picot central (+), le pôle négatif au culot (-) (masse du véhicule).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allume-cigare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allume-cigare</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Usages dérivés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation sur les bateaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve des allume-cigare également sur les bateaux de plaisance, permettant la recharge d'un appareil électrique même avec des batteries 12 V. Sur les bateaux, il n'y a souvent pas d'embout briquet.
 </t>
         </is>
       </c>
